--- a/design folder/Design requirement.xlsx
+++ b/design folder/Design requirement.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t xml:space="preserve">Their last 20 days last one week, last 3 week   same designs </t>
   </si>
@@ -225,9 +225,6 @@
     <t>UI_5_1</t>
   </si>
   <si>
-    <t>UI_5_2</t>
-  </si>
-  <si>
     <t>UI_5_3</t>
   </si>
   <si>
@@ -271,6 +268,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI_5_2</t>
+  </si>
+  <si>
+    <t>UI_10_1</t>
+  </si>
+  <si>
+    <t>Home page Offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page Offer </t>
+  </si>
+  <si>
+    <t>UI_10_2</t>
+  </si>
+  <si>
+    <t>Home Page Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page sevice </t>
   </si>
 </sst>
 </file>
@@ -950,17 +968,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="55.875" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
@@ -991,7 +1008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1007,7 +1024,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1026,7 +1043,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1054,14 +1071,14 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1076,7 +1093,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1124,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -1208,7 +1225,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1224,7 +1241,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1240,7 +1257,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1256,7 +1273,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1272,7 +1289,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1300,7 +1317,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>0</v>
@@ -1319,7 +1336,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -1328,14 +1345,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -1344,14 +1361,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -1360,14 +1377,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -1376,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -1386,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -1395,23 +1412,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>45</v>
@@ -1425,12 +1442,12 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -1441,12 +1458,12 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -1462,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
@@ -1481,7 +1498,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -1497,7 +1514,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -1513,7 +1530,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>36</v>
@@ -1532,7 +1549,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
@@ -1552,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>38</v>
@@ -1568,12 +1585,40 @@
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:14">
@@ -1645,12 +1690,7 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:F35">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Design"/>
-        <filter val="Not Started"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
